--- a/fuentes/contenidos/grado10/guion01/SolicitudGrafica_LE_10_01_CO_REC230.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGrafica_LE_10_01_CO_REC230.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -540,6 +540,9 @@
   <si>
     <t>Horizontal</t>
   </si>
+  <si>
+    <t>Hombre con frío</t>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,6 +693,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1185,7 +1193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1239,8 +1247,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1546,8 +1556,23 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1573,6 +1598,7 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1600,6 +1626,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2298,7 +2325,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2726,35 +2753,43 @@
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1">
-      <c r="A16" s="13" t="str">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="26" customHeight="1">
+      <c r="A16" s="110" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27" t="str">
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="111">
+        <v>128040584</v>
+      </c>
+      <c r="C16" s="112" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="str">
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="113" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="14" t="str">
+        <v>LE_10_01_CO_REC230_IMG07n.png</v>
+      </c>
+      <c r="G16" s="113" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="14" t="str">
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H16" s="113" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I16" s="14" t="str">
+        <v>LE_10_01_CO_REC230_IMG07a.png</v>
+      </c>
+      <c r="I16" s="113" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="34"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J16" s="114" t="s">
+        <v>157</v>
+      </c>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1">
